--- a/management/tidsplan.xlsx
+++ b/management/tidsplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\GitHub\food-app\management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9631411E-BD53-4E56-B110-FFF909ED28FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF842C7C-6F95-4E40-94C0-E16FBE7AC379}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A47EF909-47B5-4D33-9E85-3EC7110350F4}"/>
   </bookViews>
@@ -924,7 +924,7 @@
   <dimension ref="B1:AJ46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
